--- a/xlsx/a69_f38_aUPPachuca.xlsx
+++ b/xlsx/a69_f38_aUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2DA ENTREGA DEL REPORTE DE LAS 48 FRACCIONES COMUNES\ENTREGA 3ER TRIMESTRE DE LAS 48 FRACIONES COMUNES\Vo. Bo. #1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Vo.Bo. Uno UPP 4T 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -658,10 +658,10 @@
     <t>Baja California</t>
   </si>
   <si>
-    <t>Debido al reajuste de presupuesto por escuela en casa, no se han generado recursos propios para otorgar becas institucionales</t>
-  </si>
-  <si>
-    <t>Área de Becas (UPP)</t>
+    <t>Dirección de Planeación (UPP)</t>
+  </si>
+  <si>
+    <t>Debido al reajuste de presupuesto por programa Escuela en casa, no se han generado recursos propios para otorgar becas institucionales</t>
   </si>
 </sst>
 </file>
@@ -735,47 +735,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1058,590 +1043,589 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ2" workbookViewId="0">
-      <selection activeCell="AU8" sqref="AU8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="59.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="61.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="38.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="51" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="42.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="30.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="28.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="22.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="20.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="30.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="26.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="37.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="22.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="73.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="30.140625" style="6" customWidth="1"/>
-    <col min="48" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="61.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="51" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="73.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="20" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:47" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:47" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="11" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" t="s">
         <v>7</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" t="s">
         <v>11</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" t="s">
         <v>12</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" t="s">
         <v>10</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="V4" t="s">
         <v>7</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" t="s">
         <v>9</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="X4" t="s">
         <v>7</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Y4" t="s">
         <v>7</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="Z4" t="s">
         <v>7</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AA4" t="s">
         <v>7</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AB4" t="s">
         <v>7</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AC4" t="s">
         <v>12</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AD4" t="s">
         <v>9</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AE4" t="s">
         <v>7</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AF4" t="s">
         <v>7</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AG4" t="s">
         <v>12</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AH4" t="s">
         <v>9</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AI4" t="s">
         <v>7</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AJ4" t="s">
         <v>9</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AK4" t="s">
         <v>7</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="AL4" t="s">
         <v>9</v>
       </c>
-      <c r="AM4" s="3" t="s">
+      <c r="AM4" t="s">
         <v>7</v>
       </c>
-      <c r="AN4" s="3" t="s">
+      <c r="AN4" t="s">
         <v>12</v>
       </c>
-      <c r="AO4" s="3" t="s">
+      <c r="AO4" t="s">
         <v>7</v>
       </c>
-      <c r="AP4" s="3" t="s">
+      <c r="AP4" t="s">
         <v>7</v>
       </c>
-      <c r="AQ4" s="3" t="s">
+      <c r="AQ4" t="s">
         <v>9</v>
       </c>
-      <c r="AR4" s="3" t="s">
+      <c r="AR4" t="s">
         <v>9</v>
       </c>
-      <c r="AS4" s="3" t="s">
+      <c r="AS4" t="s">
         <v>8</v>
       </c>
-      <c r="AT4" s="3" t="s">
+      <c r="AT4" t="s">
         <v>13</v>
       </c>
-      <c r="AU4" s="6" t="s">
+      <c r="AU4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" t="s">
         <v>31</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="R5" t="s">
         <v>32</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="S5" t="s">
         <v>33</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="T5" t="s">
         <v>34</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="U5" t="s">
         <v>35</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="V5" t="s">
         <v>36</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="W5" t="s">
         <v>37</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="X5" t="s">
         <v>38</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="Y5" t="s">
         <v>39</v>
       </c>
-      <c r="Z5" s="3" t="s">
+      <c r="Z5" t="s">
         <v>40</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AA5" t="s">
         <v>41</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AB5" t="s">
         <v>42</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AC5" t="s">
         <v>43</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AD5" t="s">
         <v>44</v>
       </c>
-      <c r="AE5" s="3" t="s">
+      <c r="AE5" t="s">
         <v>45</v>
       </c>
-      <c r="AF5" s="3" t="s">
+      <c r="AF5" t="s">
         <v>46</v>
       </c>
-      <c r="AG5" s="3" t="s">
+      <c r="AG5" t="s">
         <v>47</v>
       </c>
-      <c r="AH5" s="3" t="s">
+      <c r="AH5" t="s">
         <v>48</v>
       </c>
-      <c r="AI5" s="3" t="s">
+      <c r="AI5" t="s">
         <v>49</v>
       </c>
-      <c r="AJ5" s="3" t="s">
+      <c r="AJ5" t="s">
         <v>50</v>
       </c>
-      <c r="AK5" s="3" t="s">
+      <c r="AK5" t="s">
         <v>51</v>
       </c>
-      <c r="AL5" s="3" t="s">
+      <c r="AL5" t="s">
         <v>52</v>
       </c>
-      <c r="AM5" s="3" t="s">
+      <c r="AM5" t="s">
         <v>53</v>
       </c>
-      <c r="AN5" s="3" t="s">
+      <c r="AN5" t="s">
         <v>54</v>
       </c>
-      <c r="AO5" s="3" t="s">
+      <c r="AO5" t="s">
         <v>55</v>
       </c>
-      <c r="AP5" s="3" t="s">
+      <c r="AP5" t="s">
         <v>56</v>
       </c>
-      <c r="AQ5" s="3" t="s">
+      <c r="AQ5" t="s">
         <v>57</v>
       </c>
-      <c r="AR5" s="3" t="s">
+      <c r="AR5" t="s">
         <v>58</v>
       </c>
-      <c r="AS5" s="3" t="s">
+      <c r="AS5" t="s">
         <v>59</v>
       </c>
-      <c r="AT5" s="3" t="s">
+      <c r="AT5" t="s">
         <v>60</v>
       </c>
-      <c r="AU5" s="6" t="s">
+      <c r="AU5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="9"/>
-      <c r="AK6" s="9"/>
-      <c r="AL6" s="9"/>
-      <c r="AM6" s="9"/>
-      <c r="AN6" s="9"/>
-      <c r="AO6" s="9"/>
-      <c r="AP6" s="9"/>
-      <c r="AQ6" s="9"/>
-      <c r="AR6" s="9"/>
-      <c r="AS6" s="9"/>
-      <c r="AT6" s="9"/>
-      <c r="AU6" s="9"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="6"/>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="6"/>
+      <c r="AN6" s="6"/>
+      <c r="AO6" s="6"/>
+      <c r="AP6" s="6"/>
+      <c r="AQ6" s="6"/>
+      <c r="AR6" s="6"/>
+      <c r="AS6" s="6"/>
+      <c r="AT6" s="6"/>
+      <c r="AU6" s="6"/>
     </row>
     <row r="7" spans="1:47" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="O7" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="P7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="Q7" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="R7" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="S7" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="T7" s="5" t="s">
+      <c r="T7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="U7" s="5" t="s">
+      <c r="U7" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="V7" s="5" t="s">
+      <c r="V7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="W7" s="5" t="s">
+      <c r="W7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="X7" s="5" t="s">
+      <c r="X7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="Y7" s="5" t="s">
+      <c r="Y7" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="Z7" s="5" t="s">
+      <c r="Z7" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AA7" s="5" t="s">
+      <c r="AA7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AB7" s="5" t="s">
+      <c r="AB7" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AC7" s="5" t="s">
+      <c r="AC7" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AD7" s="5" t="s">
+      <c r="AD7" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AE7" s="5" t="s">
+      <c r="AE7" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AF7" s="5" t="s">
+      <c r="AF7" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AG7" s="5" t="s">
+      <c r="AG7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AH7" s="5" t="s">
+      <c r="AH7" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AI7" s="5" t="s">
+      <c r="AI7" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AJ7" s="5" t="s">
+      <c r="AJ7" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AK7" s="5" t="s">
+      <c r="AK7" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AL7" s="5" t="s">
+      <c r="AL7" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AM7" s="5" t="s">
+      <c r="AM7" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AN7" s="5" t="s">
+      <c r="AN7" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AO7" s="5" t="s">
+      <c r="AO7" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AP7" s="5" t="s">
+      <c r="AP7" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AQ7" s="5" t="s">
+      <c r="AQ7" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AR7" s="5" t="s">
+      <c r="AR7" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AS7" s="5" t="s">
+      <c r="AS7" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AT7" s="5" t="s">
+      <c r="AT7" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AU7" s="7" t="s">
+      <c r="AU7" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:47" s="4" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:47" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>2020</v>
       </c>
-      <c r="B8" s="2">
-        <v>44013</v>
-      </c>
-      <c r="C8" s="2">
-        <v>44104</v>
+      <c r="B8" s="3">
+        <v>44105</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44196</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1684,16 +1668,16 @@
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2"/>
       <c r="AR8" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="AS8" s="3">
+        <v>44206</v>
+      </c>
+      <c r="AT8" s="3">
+        <v>44206</v>
+      </c>
+      <c r="AU8" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="AS8" s="2">
-        <v>44114</v>
-      </c>
-      <c r="AT8" s="2">
-        <v>44114</v>
-      </c>
-      <c r="AU8" s="13" t="s">
-        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -1707,16 +1691,16 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="T9:T199">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="T8">
       <formula1>Hidden_119</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AC9:AC199">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AC8">
       <formula1>Hidden_228</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AG9:AG199">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AG8">
       <formula1>Hidden_332</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AN9:AN199">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AN8">
       <formula1>Hidden_439</formula1>
     </dataValidation>
   </dataValidations>
@@ -1729,22 +1713,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="10" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="10" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1757,137 +1746,142 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="10" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="10" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="10" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="10" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="10" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="10" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="10" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="10" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="10" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="10" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="10" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="10" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="10" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="10" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="10" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="10" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="10" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="10" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="10" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="10" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="10" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="10" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="10" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="10" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="10" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1900,212 +1894,217 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="10" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="10" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="10" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="10" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="10" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="10" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="10" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="10" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="10" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="10" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="10" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="10" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="10" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="10" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="10" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="10" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="10" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="10" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="10" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="10" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="10" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="10" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="10" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="10" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="10" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="10" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="10" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="10" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="10" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="10" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="10" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="10" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="10" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="10" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="10" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="10" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="10" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="10" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="10" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="10" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2118,167 +2117,172 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="10" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="10" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="10" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="10" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="10" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="10" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="10" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="10" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="10" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="10" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="10" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="10" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="10" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="10" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="10" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="10" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="10" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="10" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="10" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="10" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="10" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="10" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="10" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="10" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="10" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="10" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="10" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="10" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="10" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="10" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="10" t="s">
         <v>208</v>
       </c>
     </row>

--- a/xlsx/a69_f38_aUPPachuca.xlsx
+++ b/xlsx/a69_f38_aUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Vo.Bo. Uno UPP 4T 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\UPP 1er Trimestre SIPOT 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -661,14 +661,14 @@
     <t>Dirección de Planeación (UPP)</t>
   </si>
   <si>
-    <t>Debido al reajuste de presupuesto por programa Escuela en casa, no se han generado recursos propios para otorgar becas institucionales</t>
+    <t>Debido a la contingencia por COVID-19, no se han tenido clases presenciales por el Programa Mi Escuela en Casa. Por las características de las becas Institucionales, se otorgarán cuando las y los estudiantes regresen a la nueva normalidad.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -687,6 +687,12 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -735,7 +741,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -745,9 +751,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -760,7 +763,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1043,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="AT2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AU10" sqref="AU10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,7 +1100,7 @@
     <col min="44" max="44" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="20" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="38.85546875" customWidth="1"/>
+    <col min="47" max="47" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
@@ -1104,38 +1109,38 @@
       </c>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:47" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="8" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1424,55 +1429,55 @@
       </c>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="6"/>
-      <c r="AH6" s="6"/>
-      <c r="AI6" s="6"/>
-      <c r="AJ6" s="6"/>
-      <c r="AK6" s="6"/>
-      <c r="AL6" s="6"/>
-      <c r="AM6" s="6"/>
-      <c r="AN6" s="6"/>
-      <c r="AO6" s="6"/>
-      <c r="AP6" s="6"/>
-      <c r="AQ6" s="6"/>
-      <c r="AR6" s="6"/>
-      <c r="AS6" s="6"/>
-      <c r="AT6" s="6"/>
-      <c r="AU6" s="6"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="5"/>
+      <c r="AQ6" s="5"/>
+      <c r="AR6" s="5"/>
+      <c r="AS6" s="5"/>
+      <c r="AT6" s="5"/>
+      <c r="AU6" s="5"/>
     </row>
     <row r="7" spans="1:47" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1617,15 +1622,15 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:47" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B8" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C8" s="3">
-        <v>44196</v>
+        <v>44286</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1671,12 +1676,12 @@
         <v>209</v>
       </c>
       <c r="AS8" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AT8" s="3">
-        <v>44206</v>
-      </c>
-      <c r="AU8" s="4" t="s">
+        <v>44298</v>
+      </c>
+      <c r="AU8" s="9" t="s">
         <v>210</v>
       </c>
     </row>
@@ -1691,21 +1696,21 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="T8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="T8:T150">
       <formula1>Hidden_119</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AC8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AC8:AC150">
       <formula1>Hidden_228</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AG8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AG8:AG150">
       <formula1>Hidden_332</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AN8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AN8:AN150">
       <formula1>Hidden_439</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1713,27 +1718,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1746,142 +1746,137 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="A23" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1894,217 +1889,212 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A41"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="A23" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="A28" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="A29" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="A30" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="A31" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+      <c r="A32" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+      <c r="A34" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+      <c r="A35" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+      <c r="A36" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+      <c r="A37" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
+      <c r="A38" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
+      <c r="A39" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
+      <c r="A40" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+      <c r="A41" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2117,172 +2107,167 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A32"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="A23" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="A28" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="A29" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="A30" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="A31" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+      <c r="A32" t="s">
         <v>208</v>
       </c>
     </row>

--- a/xlsx/a69_f38_aUPPachuca.xlsx
+++ b/xlsx/a69_f38_aUPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\UPP 1er Trimestre SIPOT 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\2do Trimestre SIPOT 2021\2do Trimestre UPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,11 @@
     <sheet name="Hidden_3" sheetId="4" r:id="rId4"/>
     <sheet name="Hidden_4" sheetId="5" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <definedNames>
+    <definedName name="dd">[1]Hidden_4!$A$1:$A$32</definedName>
     <definedName name="Hidden_119">Hidden_1!$A$1:$A$3</definedName>
     <definedName name="Hidden_228">Hidden_2!$A$1:$A$26</definedName>
     <definedName name="Hidden_332">Hidden_3!$A$1:$A$41</definedName>
@@ -661,14 +665,17 @@
     <t>Dirección de Planeación (UPP)</t>
   </si>
   <si>
-    <t>Debido a la contingencia por COVID-19, no se han tenido clases presenciales por el Programa Mi Escuela en Casa. Por las características de las becas Institucionales, se otorgarán cuando las y los estudiantes regresen a la nueva normalidad.</t>
+    <t>De conformidad con las atribuciones conferidas en el Artículo 4 del Decreto publicado el 4 de febrero de 2008, que modifica diversas disposiciones del Diverso que abrogó al que creó a la Universidad Politécnica de Pachuca; no tiene bajo su responsabilidad el otorgar este tipo de Programas.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -694,6 +701,22 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -738,10 +761,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -751,6 +776,18 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -763,11 +800,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -781,6 +820,188 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Reporte de Formatos"/>
+      <sheetName val="Hidden_1"/>
+      <sheetName val="Hidden_2"/>
+      <sheetName val="Hidden_3"/>
+      <sheetName val="Hidden_4"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>México</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Guerrero</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Puebla</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Quintana Roo</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Guanajuato</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Durango</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Michoacán de Ocampo</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>San Luis Potosí</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Campeche</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Coahuila de Zaragoza</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Nayarit</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Zacatecas</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Morelos</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Sonora</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Baja California Sur</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Colima</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>Tabasco</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>Oaxaca</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>Tlaxcala</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>Jalisco</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>Chiapas</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>Hidalgo</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>Aguascalientes</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>Tamaulipas</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>Sinaloa</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>Yucatán</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>Chihuahua</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>Querétaro</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>Nuevo León</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>Veracruz de Ignacio de la Llave</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>Ciudad de México</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>Baja California</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1048,8 +1269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AU10" sqref="AU10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,30 +1278,30 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
     <col min="5" max="5" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" customWidth="1"/>
+    <col min="12" max="12" width="54.42578125" customWidth="1"/>
+    <col min="13" max="13" width="42.7109375" customWidth="1"/>
     <col min="14" max="14" width="59.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="61.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="60.28515625" customWidth="1"/>
+    <col min="17" max="17" width="36.5703125" customWidth="1"/>
+    <col min="18" max="18" width="34.140625" customWidth="1"/>
     <col min="19" max="19" width="38.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="51" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" customWidth="1"/>
     <col min="25" max="25" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.42578125" customWidth="1"/>
     <col min="28" max="28" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="17.28515625" bestFit="1" customWidth="1"/>
@@ -1100,7 +1321,7 @@
     <col min="44" max="44" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="20" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="42.5703125" customWidth="1"/>
+    <col min="47" max="47" width="57.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
@@ -1109,38 +1330,38 @@
       </c>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:47" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="7" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1429,55 +1650,55 @@
       </c>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
-      <c r="AG6" s="5"/>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="5"/>
-      <c r="AM6" s="5"/>
-      <c r="AN6" s="5"/>
-      <c r="AO6" s="5"/>
-      <c r="AP6" s="5"/>
-      <c r="AQ6" s="5"/>
-      <c r="AR6" s="5"/>
-      <c r="AS6" s="5"/>
-      <c r="AT6" s="5"/>
-      <c r="AU6" s="5"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="9"/>
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="9"/>
+      <c r="AN6" s="9"/>
+      <c r="AO6" s="9"/>
+      <c r="AP6" s="9"/>
+      <c r="AQ6" s="9"/>
+      <c r="AR6" s="9"/>
+      <c r="AS6" s="9"/>
+      <c r="AT6" s="9"/>
+      <c r="AU6" s="9"/>
     </row>
     <row r="7" spans="1:47" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1622,66 +1843,66 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:47" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2021</v>
       </c>
       <c r="B8" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C8" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+        <v>44377</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
-      <c r="AH8" s="2"/>
-      <c r="AI8" s="2"/>
-      <c r="AJ8" s="2"/>
-      <c r="AK8" s="2"/>
-      <c r="AL8" s="2"/>
-      <c r="AM8" s="2"/>
-      <c r="AN8" s="2"/>
-      <c r="AO8" s="2"/>
-      <c r="AP8" s="2"/>
-      <c r="AQ8" s="2"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
       <c r="AR8" s="2" t="s">
         <v>209</v>
       </c>
       <c r="AS8" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AT8" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AU8" s="9" t="s">
+        <v>44386</v>
+      </c>
+      <c r="AU8" s="13" t="s">
         <v>210</v>
       </c>
     </row>
@@ -1695,22 +1916,25 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="T8:T150">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AN8">
+      <formula1>dd</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="T8:T28">
       <formula1>Hidden_119</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AC8:AC150">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AC8:AC28">
       <formula1>Hidden_228</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AG8:AG150">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AG8:AG28">
       <formula1>Hidden_332</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AN8:AN150">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AN9:AN28">
       <formula1>Hidden_439</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/xlsx/a69_f38_aUPPachuca.xlsx
+++ b/xlsx/a69_f38_aUPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\2do Trimestre SIPOT 2021\2do Trimestre UPP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -789,6 +789,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -799,9 +802,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1269,8 +1269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="AR2" workbookViewId="0">
+      <selection activeCell="AT8" sqref="AT8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1330,38 +1330,38 @@
       </c>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:47" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="11" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1650,55 +1650,55 @@
       </c>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="9"/>
-      <c r="AK6" s="9"/>
-      <c r="AL6" s="9"/>
-      <c r="AM6" s="9"/>
-      <c r="AN6" s="9"/>
-      <c r="AO6" s="9"/>
-      <c r="AP6" s="9"/>
-      <c r="AQ6" s="9"/>
-      <c r="AR6" s="9"/>
-      <c r="AS6" s="9"/>
-      <c r="AT6" s="9"/>
-      <c r="AU6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="10"/>
+      <c r="AO6" s="10"/>
+      <c r="AP6" s="10"/>
+      <c r="AQ6" s="10"/>
+      <c r="AR6" s="10"/>
+      <c r="AS6" s="10"/>
+      <c r="AT6" s="10"/>
+      <c r="AU6" s="10"/>
     </row>
     <row r="7" spans="1:47" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1848,10 +1848,10 @@
         <v>2021</v>
       </c>
       <c r="B8" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C8" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1897,12 +1897,12 @@
         <v>209</v>
       </c>
       <c r="AS8" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AT8" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AU8" s="13" t="s">
+        <v>44480</v>
+      </c>
+      <c r="AU8" s="8" t="s">
         <v>210</v>
       </c>
     </row>

--- a/xlsx/a69_f38_aUPPachuca.xlsx
+++ b/xlsx/a69_f38_aUPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1269,8 +1269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR2" workbookViewId="0">
-      <selection activeCell="AT8" sqref="AT8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1848,10 +1848,10 @@
         <v>2021</v>
       </c>
       <c r="B8" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C8" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1897,10 +1897,10 @@
         <v>209</v>
       </c>
       <c r="AS8" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AT8" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AU8" s="8" t="s">
         <v>210</v>

--- a/xlsx/a69_f38_aUPPachuca.xlsx
+++ b/xlsx/a69_f38_aUPPachuca.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -1259,7 +1254,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1269,8 +1264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="AR2" workbookViewId="0">
+      <selection activeCell="AT12" sqref="AT12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1845,13 +1840,13 @@
     </row>
     <row r="8" spans="1:47" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C8" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1897,10 +1892,10 @@
         <v>209</v>
       </c>
       <c r="AS8" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AT8" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AU8" s="8" t="s">
         <v>210</v>

--- a/xlsx/a69_f38_aUPPachuca.xlsx
+++ b/xlsx/a69_f38_aUPPachuca.xlsx
@@ -1254,7 +1254,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1264,8 +1264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR2" workbookViewId="0">
-      <selection activeCell="AT12" sqref="AT12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,10 +1843,10 @@
         <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C8" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1892,10 +1892,10 @@
         <v>209</v>
       </c>
       <c r="AS8" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AT8" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AU8" s="8" t="s">
         <v>210</v>

--- a/xlsx/a69_f38_aUPPachuca.xlsx
+++ b/xlsx/a69_f38_aUPPachuca.xlsx
@@ -1254,7 +1254,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1265,7 +1265,7 @@
   <dimension ref="A1:AU8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,10 +1843,10 @@
         <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C8" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1892,10 +1892,10 @@
         <v>209</v>
       </c>
       <c r="AS8" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AT8" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AU8" s="8" t="s">
         <v>210</v>

--- a/xlsx/a69_f38_aUPPachuca.xlsx
+++ b/xlsx/a69_f38_aUPPachuca.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4to Trimestre 2022\Recepción de Información\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D919598E-1AD9-49A9-AE7D-038544CD14F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7065"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -666,7 +672,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -1254,18 +1260,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="AS2" workbookViewId="0">
+      <selection activeCell="AT8" sqref="AT8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,10 +1849,10 @@
         <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C8" s="3">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1892,10 +1898,10 @@
         <v>209</v>
       </c>
       <c r="AS8" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AT8" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AU8" s="8" t="s">
         <v>210</v>
@@ -1912,19 +1918,19 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AN8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AN8" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>dd</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="T8:T28">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="T8:T28" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Hidden_119</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AC8:AC28">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AC8:AC28" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Hidden_228</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AG8:AG28">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AG8:AG28" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>Hidden_332</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AN9:AN28">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AN9:AN28" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>Hidden_439</formula1>
     </dataValidation>
   </dataValidations>
@@ -1934,7 +1940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1962,7 +1968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2105,7 +2111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2323,7 +2329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/xlsx/a69_f38_aUPPachuca.xlsx
+++ b/xlsx/a69_f38_aUPPachuca.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4to Trimestre 2022\Recepción de Información\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D919598E-1AD9-49A9-AE7D-038544CD14F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -663,16 +657,16 @@
     <t>Baja California</t>
   </si>
   <si>
-    <t>Dirección de Planeación (UPP)</t>
-  </si>
-  <si>
     <t>De conformidad con las atribuciones conferidas en el Artículo 4 del Decreto publicado el 4 de febrero de 2008, que modifica diversas disposiciones del Diverso que abrogó al que creó a la Universidad Politécnica de Pachuca; no tiene bajo su responsabilidad el otorgar este tipo de Programas.</t>
+  </si>
+  <si>
+    <t>Unidad de Transparencia Gubernamental (UPP)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -1260,18 +1254,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS2" workbookViewId="0">
-      <selection activeCell="AT8" sqref="AT8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1846,13 +1840,13 @@
     </row>
     <row r="8" spans="1:47" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B8" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C8" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1895,16 +1889,16 @@
       <c r="AP8" s="4"/>
       <c r="AQ8" s="4"/>
       <c r="AR8" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AS8" s="3">
+        <v>45026</v>
+      </c>
+      <c r="AT8" s="3">
+        <v>45026</v>
+      </c>
+      <c r="AU8" s="8" t="s">
         <v>209</v>
-      </c>
-      <c r="AS8" s="3">
-        <v>44936</v>
-      </c>
-      <c r="AT8" s="3">
-        <v>44936</v>
-      </c>
-      <c r="AU8" s="8" t="s">
-        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -1918,19 +1912,19 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AN8" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AN8">
       <formula1>dd</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="T8:T28" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="T8:T28">
       <formula1>Hidden_119</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AC8:AC28" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AC8:AC28">
       <formula1>Hidden_228</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AG8:AG28" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AG8:AG28">
       <formula1>Hidden_332</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AN9:AN28" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AN9:AN28">
       <formula1>Hidden_439</formula1>
     </dataValidation>
   </dataValidations>
@@ -1940,7 +1934,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1968,7 +1962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2111,7 +2105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2329,7 +2323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
